--- a/data/Heart_Transplants.xlsx
+++ b/data/Heart_Transplants.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmm/Documents/quant_methods/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="CH18TA07.txt" sheetId="1" r:id="rId1"/>
+    <sheet name="Transplants" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,12 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="5">
   <si>
     <t>Survival_Days</t>
   </si>
   <si>
     <t>Mismatch_Degree</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -68,6 +85,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,13 +417,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,324 +431,322 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>44</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>551</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>297</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1350</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>730</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>994</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>551</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>280</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1024</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>253</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>624</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>836</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>136</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>127</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1024</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>65</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>253</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>25</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>297</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>66</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>64</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>46</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>322</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>60</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>161</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>65</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>624</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>54</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>39</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>63</v>
       </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1350</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>51</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>50</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>730</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>68</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>10</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>47</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>836</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>48</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>994</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>51</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>26</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
+      <c r="B40" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B40">
+    <sortCondition ref="B2:B40"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>